--- a/supervisor_checklist.xlsx
+++ b/supervisor_checklist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FORMS\reviewed final\edited\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xlsform v0.9.18\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7700"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="176">
   <si>
     <t>type</t>
   </si>
@@ -79,9 +79,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>field-list</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -319,9 +316,6 @@
     <t>SELECT CHEW NAME</t>
   </si>
   <si>
-    <t>Did the Interviewer identify the best respondent ?</t>
-  </si>
-  <si>
     <t>hint::English</t>
   </si>
   <si>
@@ -334,24 +328,6 @@
     <t>Consent Process</t>
   </si>
   <si>
-    <t>Did the Interviewer describe the interview process to the respondent?</t>
-  </si>
-  <si>
-    <t>Did the Interviewer explain that participation is voluntary?</t>
-  </si>
-  <si>
-    <t>Did the Interviewer explain that all information will be kept confidential?</t>
-  </si>
-  <si>
-    <t>Did the Interviewer give the respondent a chance to ask questions?</t>
-  </si>
-  <si>
-    <t>Did the interviewer respond/answer all questions?</t>
-  </si>
-  <si>
-    <t>Did the Interviewer record the respondent's signature, indicating participation(or not)?</t>
-  </si>
-  <si>
     <t>Interview Process</t>
   </si>
   <si>
@@ -370,76 +346,214 @@
     <t>select_one y_n</t>
   </si>
   <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>no-label</t>
-  </si>
-  <si>
-    <t>During the interview, did the interviewer</t>
-  </si>
-  <si>
-    <t>choices</t>
-  </si>
-  <si>
-    <t>req private</t>
-  </si>
-  <si>
-    <t>maintained</t>
-  </si>
-  <si>
-    <t>respected</t>
-  </si>
-  <si>
-    <t>answered</t>
-  </si>
-  <si>
-    <t>resp</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>ip1</t>
-  </si>
-  <si>
-    <t>ip2</t>
-  </si>
-  <si>
-    <t>ip3</t>
-  </si>
-  <si>
-    <t>ip4</t>
-  </si>
-  <si>
-    <t>ip5</t>
-  </si>
-  <si>
-    <t>ip6</t>
-  </si>
-  <si>
-    <t>ip</t>
-  </si>
-  <si>
-    <t>cp</t>
-  </si>
-  <si>
-    <t>cp1</t>
-  </si>
-  <si>
-    <t>cp2</t>
-  </si>
-  <si>
-    <t>cp3</t>
-  </si>
-  <si>
-    <t>cp4</t>
-  </si>
-  <si>
-    <t>cp5</t>
-  </si>
-  <si>
-    <t>cppp</t>
+    <t>Consent_Process</t>
+  </si>
+  <si>
+    <t>Interview_Process</t>
+  </si>
+  <si>
+    <t>describe</t>
+  </si>
+  <si>
+    <t>ans_quiz</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>mobile_stall_int</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>m_f</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>select_one m_f</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>leading_quiz</t>
+  </si>
+  <si>
+    <t>rec_narrat</t>
+  </si>
+  <si>
+    <t>device_protected</t>
+  </si>
+  <si>
+    <t>device_charged</t>
+  </si>
+  <si>
+    <t>int_completed_bat_off</t>
+  </si>
+  <si>
+    <t>addr_rem_quiz</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>data_upload</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Int_process</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>During the interview</t>
+  </si>
+  <si>
+    <t>note2</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>In minutes</t>
+  </si>
+  <si>
+    <t>selected(${mobile_stall_int},'yes')</t>
+  </si>
+  <si>
+    <t>selected(${device_charged},'no')</t>
+  </si>
+  <si>
+    <t>best_resp</t>
+  </si>
+  <si>
+    <t>exp_voluntary_part</t>
+  </si>
+  <si>
+    <t>exp_info_conf</t>
+  </si>
+  <si>
+    <t>resp_ask_q</t>
+  </si>
+  <si>
+    <t>resp_sign</t>
+  </si>
+  <si>
+    <t>private_loc</t>
+  </si>
+  <si>
+    <t>direct_eng</t>
+  </si>
+  <si>
+    <t>sensitive</t>
+  </si>
+  <si>
+    <t>ans_all_quiz</t>
+  </si>
+  <si>
+    <t>1.Did the Interviewer identify the best respondent ?</t>
+  </si>
+  <si>
+    <t>2. Consent Process</t>
+  </si>
+  <si>
+    <t>3. Interview Process (Behaviour)</t>
+  </si>
+  <si>
+    <t>3.5 Did the use of mobile device stall interview process?</t>
+  </si>
+  <si>
+    <t>3.5.1 What is the estimated length of delay</t>
+  </si>
+  <si>
+    <t>4. Interview Process (Questionnaire)</t>
+  </si>
+  <si>
+    <t>5. IT Considerations</t>
+  </si>
+  <si>
+    <t>5.3 Was the inteview completed prior to the depletion of battery charge ?</t>
+  </si>
+  <si>
+    <t>6. After the inteview</t>
+  </si>
+  <si>
+    <t>7. Comments/suggestions for corrective action</t>
+  </si>
+  <si>
+    <t>5.1 Does the Interviewer use mobile device case and carries mobile device in a protective bag ?</t>
+  </si>
+  <si>
+    <t>5.2 Was the mobile device more than 75% charged prior to the start of the interview?</t>
+  </si>
+  <si>
+    <t>2.1 Did the Interviewer describe the interview process to the respondent?</t>
+  </si>
+  <si>
+    <t>2.2 Did the Interviewer explain that participation is voluntary?</t>
+  </si>
+  <si>
+    <t>2.3 Did the Interviewer explain that all information will be kept confidential?</t>
+  </si>
+  <si>
+    <t>2.4 Did the Interviewer give the respondent a chance to ask questions?</t>
+  </si>
+  <si>
+    <t>2.5 Did the Interviewer respond to/answer all questions?</t>
+  </si>
+  <si>
+    <t>2.6 Did the Interviewer record the respondent's signature, indicating participation(or not)?</t>
+  </si>
+  <si>
+    <t>3.1 Did the Interviewer request a private location to conduct interview?</t>
+  </si>
+  <si>
+    <t>3.2 Did the Interviewer maintain direct engagement and/or eye contact regularly with the respondent?</t>
+  </si>
+  <si>
+    <t>3.3 Did the Interviewer respect the sensitive nature of the interview questions?</t>
+  </si>
+  <si>
+    <t>3.4 Did the Interviewer answer all questions raised by the respondent during the interview?</t>
+  </si>
+  <si>
+    <t>4.1 Did the Interviewer ask and document responses for all appropriate questions?</t>
+  </si>
+  <si>
+    <t>4.2 Did the Interviewer lead or guide respondents to responses (Asked leading questions)?</t>
+  </si>
+  <si>
+    <t>4.3 Did the Interviewer record the narrative so as to minimize the burden and wait time for the respondents (e.g. recorded written notes and completed the checklist during the interview and entered the information into the mobile device after concluding the interview).?</t>
+  </si>
+  <si>
+    <t>6.1 Did the Interviewer address any remaining questions or concerns of the respondent ?</t>
+  </si>
+  <si>
+    <t>6.2 Did the Interviewer review the questionnaire to make sure it is complete ?</t>
+  </si>
+  <si>
+    <t>6.3 Did the Interviewer upload the interview data to the server (If service available) ?</t>
   </si>
 </sst>
 </file>
@@ -775,11 +889,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -804,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -848,263 +962,523 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
+    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>148</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>160</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>161</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>162</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>163</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
         <v>109</v>
       </c>
-      <c r="B15" t="s">
-        <v>136</v>
-      </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>164</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="B29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" t="s">
+        <v>159</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" t="s">
+        <v>155</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" t="s">
+        <v>173</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" t="s">
+        <v>174</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" t="s">
+        <v>175</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B46" t="s">
         <v>130</v>
       </c>
-      <c r="C19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>21</v>
+      <c r="C46" t="s">
+        <v>157</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1128,24 +1502,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1154,382 +1528,404 @@
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
+      <c r="A6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1542,7 +1938,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1571,16 +1967,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
